--- a/database/industries/lastic/pasa/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pasa/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F7B1C0-E5BC-4CB1-B175-7ACC6C58C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB776F32-1796-4BAF-AFD1-331490985FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -664,12 +664,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -684,7 +684,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,7 +701,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -834,7 +834,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -862,35 +862,35 @@
       <c r="E11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>18</v>
+      <c r="F11" s="11">
+        <v>2149384</v>
       </c>
       <c r="G11" s="11">
-        <v>2149384</v>
-      </c>
-      <c r="H11" s="11">
         <v>2840163</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
         <v>2137627</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2992665</v>
       </c>
       <c r="L11" s="11">
-        <v>2992665</v>
+        <v>2791973</v>
       </c>
       <c r="M11" s="11">
-        <v>2791973</v>
+        <v>2458412</v>
       </c>
       <c r="N11" s="11">
-        <v>2458412</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3574880</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -901,27 +901,27 @@
       <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>18</v>
+      <c r="F12" s="13">
+        <v>278222</v>
       </c>
       <c r="G12" s="13">
-        <v>278222</v>
-      </c>
-      <c r="H12" s="13">
         <v>336135</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="13">
+      <c r="K12" s="13">
         <v>319677</v>
       </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" s="13" t="s">
         <v>18</v>
       </c>
@@ -929,7 +929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -940,35 +940,35 @@
       <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>18</v>
+      <c r="F13" s="11">
+        <v>403008</v>
       </c>
       <c r="G13" s="11">
-        <v>403008</v>
-      </c>
-      <c r="H13" s="11">
         <v>567818</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>618663</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>580987</v>
       </c>
       <c r="L13" s="11">
-        <v>580987</v>
+        <v>527267</v>
       </c>
       <c r="M13" s="11">
-        <v>527267</v>
+        <v>499842</v>
       </c>
       <c r="N13" s="11">
-        <v>499842</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>587968</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -988,26 +988,26 @@
       <c r="H14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="13">
         <v>248738</v>
       </c>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>18</v>
+      <c r="L14" s="13">
+        <v>281464</v>
       </c>
       <c r="M14" s="13">
-        <v>281464</v>
+        <v>275102</v>
       </c>
       <c r="N14" s="13">
-        <v>275102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>370148</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
@@ -1017,34 +1017,34 @@
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <v>0</v>
+        <v>2830614</v>
       </c>
       <c r="G15" s="15">
-        <v>2830614</v>
+        <v>3744116</v>
       </c>
       <c r="H15" s="15">
-        <v>3744116</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15">
-        <v>0</v>
+        <v>3005028</v>
       </c>
       <c r="J15" s="15">
-        <v>3005028</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>3893329</v>
       </c>
       <c r="L15" s="15">
-        <v>3893329</v>
+        <v>3600704</v>
       </c>
       <c r="M15" s="15">
-        <v>3600704</v>
+        <v>3233356</v>
       </c>
       <c r="N15" s="15">
-        <v>3233356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4532996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1072,35 +1072,35 @@
       <c r="E17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
+      <c r="F17" s="11">
+        <v>839896</v>
       </c>
       <c r="G17" s="11">
-        <v>839896</v>
-      </c>
-      <c r="H17" s="11">
         <v>833445</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="11">
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11">
         <v>660147</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>18</v>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>806228</v>
       </c>
       <c r="L17" s="11">
-        <v>806228</v>
+        <v>1108564</v>
       </c>
       <c r="M17" s="11">
-        <v>1108564</v>
+        <v>731185</v>
       </c>
       <c r="N17" s="11">
-        <v>731185</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>904548</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
@@ -1111,14 +1111,14 @@
       <c r="E18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
+      <c r="F18" s="13">
+        <v>12405</v>
       </c>
       <c r="G18" s="13">
-        <v>12405</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>18</v>
@@ -1139,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>20</v>
       </c>
@@ -1150,35 +1150,35 @@
       <c r="E19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>18</v>
+      <c r="F19" s="11">
+        <v>240055</v>
       </c>
       <c r="G19" s="11">
-        <v>240055</v>
-      </c>
-      <c r="H19" s="11">
         <v>287033</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="11">
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11">
         <v>142496</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11">
+        <v>42593</v>
       </c>
       <c r="L19" s="11">
-        <v>42593</v>
+        <v>30032</v>
       </c>
       <c r="M19" s="11">
-        <v>30032</v>
+        <v>37937</v>
       </c>
       <c r="N19" s="11">
-        <v>37937</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40865</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
@@ -1198,26 +1198,26 @@
       <c r="H20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="13">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13">
+        <v>22</v>
       </c>
       <c r="L20" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13">
-        <v>0</v>
+        <v>25639</v>
       </c>
       <c r="N20" s="13">
-        <v>25639</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>24</v>
       </c>
@@ -1227,34 +1227,34 @@
         <v>0</v>
       </c>
       <c r="F21" s="15">
-        <v>0</v>
+        <v>1092356</v>
       </c>
       <c r="G21" s="15">
-        <v>1092356</v>
+        <v>1120478</v>
       </c>
       <c r="H21" s="15">
-        <v>1120478</v>
+        <v>0</v>
       </c>
       <c r="I21" s="15">
-        <v>0</v>
+        <v>802643</v>
       </c>
       <c r="J21" s="15">
-        <v>802643</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>848843</v>
       </c>
       <c r="L21" s="15">
-        <v>848843</v>
+        <v>1138596</v>
       </c>
       <c r="M21" s="15">
-        <v>1138596</v>
+        <v>794761</v>
       </c>
       <c r="N21" s="15">
-        <v>794761</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>945412</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
@@ -1319,15 +1319,15 @@
       <c r="E24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>18</v>
+      <c r="F24" s="19">
+        <v>-167</v>
       </c>
       <c r="G24" s="19">
-        <v>-167</v>
-      </c>
-      <c r="H24" s="19">
         <v>-804</v>
       </c>
+      <c r="H24" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="I24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1356,23 +1356,23 @@
       <c r="E25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>18</v>
+      <c r="F25" s="15">
+        <v>0</v>
       </c>
       <c r="G25" s="15">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
         <v>-804</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="15">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>18</v>
+      <c r="H25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
       </c>
       <c r="L25" s="15">
         <v>0</v>
@@ -1384,55 +1384,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="19" t="s">
-        <v>18</v>
+      <c r="E26" s="19">
+        <v>0</v>
       </c>
       <c r="F26" s="19">
-        <v>0</v>
+        <v>3922803</v>
       </c>
       <c r="G26" s="19">
-        <v>3922803</v>
+        <v>0</v>
       </c>
       <c r="H26" s="19">
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <v>0</v>
+        <v>3807671</v>
       </c>
       <c r="J26" s="19">
-        <v>3807671</v>
+        <v>0</v>
       </c>
       <c r="K26" s="19">
-        <v>0</v>
+        <v>4742172</v>
       </c>
       <c r="L26" s="19">
-        <v>4742172</v>
+        <v>4739300</v>
       </c>
       <c r="M26" s="19">
-        <v>4739300</v>
+        <v>4028117</v>
       </c>
       <c r="N26" s="19">
-        <v>4028117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5478408</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
         <v>4862986</v>
       </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1442,7 +1440,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1457,7 +1455,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1472,7 +1470,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1487,7 +1485,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1539,7 +1537,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1554,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1567,35 +1565,35 @@
       <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>18</v>
+      <c r="F34" s="11">
+        <v>1126385</v>
       </c>
       <c r="G34" s="11">
-        <v>1126385</v>
-      </c>
-      <c r="H34" s="11">
         <v>1627566</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11">
         <v>1520007</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>18</v>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2647707</v>
       </c>
       <c r="L34" s="11">
-        <v>2647707</v>
+        <v>2724036</v>
       </c>
       <c r="M34" s="11">
-        <v>2724036</v>
+        <v>2500817</v>
       </c>
       <c r="N34" s="11">
-        <v>2500817</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3866191</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1606,27 +1604,27 @@
       <c r="E35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>18</v>
+      <c r="F35" s="13">
+        <v>91366</v>
       </c>
       <c r="G35" s="13">
-        <v>91366</v>
-      </c>
-      <c r="H35" s="13">
         <v>155903</v>
       </c>
+      <c r="H35" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="13">
+      <c r="K35" s="13">
         <v>192545</v>
       </c>
+      <c r="L35" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M35" s="13" t="s">
         <v>18</v>
       </c>
@@ -1634,7 +1632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>20</v>
       </c>
@@ -1645,35 +1643,35 @@
       <c r="E36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>18</v>
+      <c r="F36" s="11">
+        <v>296482</v>
       </c>
       <c r="G36" s="11">
-        <v>296482</v>
-      </c>
-      <c r="H36" s="11">
         <v>443844</v>
       </c>
-      <c r="I36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="H36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="11">
         <v>513178</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="11">
+        <v>539011</v>
       </c>
       <c r="L36" s="11">
-        <v>539011</v>
+        <v>485416</v>
       </c>
       <c r="M36" s="11">
-        <v>485416</v>
+        <v>510790</v>
       </c>
       <c r="N36" s="11">
-        <v>510790</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>637915</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>21</v>
       </c>
@@ -1693,26 +1691,26 @@
       <c r="H37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" s="13">
+      <c r="I37" s="13">
         <v>138270</v>
       </c>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>18</v>
+      <c r="L37" s="13">
+        <v>179096</v>
       </c>
       <c r="M37" s="13">
-        <v>179096</v>
+        <v>214084</v>
       </c>
       <c r="N37" s="13">
-        <v>214084</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293377</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>22</v>
       </c>
@@ -1722,34 +1720,34 @@
         <v>0</v>
       </c>
       <c r="F38" s="15">
-        <v>0</v>
+        <v>1514233</v>
       </c>
       <c r="G38" s="15">
-        <v>1514233</v>
+        <v>2227313</v>
       </c>
       <c r="H38" s="15">
-        <v>2227313</v>
+        <v>0</v>
       </c>
       <c r="I38" s="15">
-        <v>0</v>
+        <v>2171455</v>
       </c>
       <c r="J38" s="15">
-        <v>2171455</v>
+        <v>0</v>
       </c>
       <c r="K38" s="15">
-        <v>0</v>
+        <v>3379263</v>
       </c>
       <c r="L38" s="15">
-        <v>3379263</v>
+        <v>3388548</v>
       </c>
       <c r="M38" s="15">
-        <v>3388548</v>
+        <v>3225691</v>
       </c>
       <c r="N38" s="15">
-        <v>3225691</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4797483</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -1766,7 +1764,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>16</v>
       </c>
@@ -1777,35 +1775,35 @@
       <c r="E40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>18</v>
+      <c r="F40" s="11">
+        <v>366293</v>
       </c>
       <c r="G40" s="11">
-        <v>366293</v>
-      </c>
-      <c r="H40" s="11">
         <v>331486</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J40" s="11">
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
         <v>368386</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>505284</v>
       </c>
       <c r="L40" s="11">
-        <v>505284</v>
+        <v>821023</v>
       </c>
       <c r="M40" s="11">
-        <v>821023</v>
+        <v>574661</v>
       </c>
       <c r="N40" s="11">
-        <v>574661</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>759296</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>19</v>
       </c>
@@ -1816,14 +1814,14 @@
       <c r="E41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>18</v>
+      <c r="F41" s="13">
+        <v>3752</v>
       </c>
       <c r="G41" s="13">
-        <v>3752</v>
-      </c>
-      <c r="H41" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>18</v>
@@ -1844,7 +1842,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
@@ -1855,35 +1853,35 @@
       <c r="E42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>18</v>
+      <c r="F42" s="11">
+        <v>108564</v>
       </c>
       <c r="G42" s="11">
-        <v>108564</v>
-      </c>
-      <c r="H42" s="11">
         <v>111570</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J42" s="11">
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
         <v>76475</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>26845</v>
       </c>
       <c r="L42" s="11">
-        <v>26845</v>
+        <v>25055</v>
       </c>
       <c r="M42" s="11">
-        <v>25055</v>
+        <v>35982</v>
       </c>
       <c r="N42" s="11">
-        <v>35982</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41288</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
@@ -1903,26 +1901,26 @@
       <c r="H43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J43" s="13">
-        <v>0</v>
-      </c>
-      <c r="K43" s="13" t="s">
-        <v>18</v>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13">
+        <v>11</v>
       </c>
       <c r="L43" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M43" s="13">
-        <v>0</v>
+        <v>14959</v>
       </c>
       <c r="N43" s="13">
-        <v>14959</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>24</v>
       </c>
@@ -1932,34 +1930,34 @@
         <v>0</v>
       </c>
       <c r="F44" s="15">
-        <v>0</v>
+        <v>478609</v>
       </c>
       <c r="G44" s="15">
-        <v>478609</v>
+        <v>443056</v>
       </c>
       <c r="H44" s="15">
-        <v>443056</v>
+        <v>0</v>
       </c>
       <c r="I44" s="15">
-        <v>0</v>
+        <v>444861</v>
       </c>
       <c r="J44" s="15">
-        <v>444861</v>
+        <v>0</v>
       </c>
       <c r="K44" s="15">
-        <v>0</v>
+        <v>532140</v>
       </c>
       <c r="L44" s="15">
-        <v>532140</v>
+        <v>846078</v>
       </c>
       <c r="M44" s="15">
-        <v>846078</v>
+        <v>625602</v>
       </c>
       <c r="N44" s="15">
-        <v>625602</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800584</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>35</v>
       </c>
@@ -1976,7 +1974,7 @@
       <c r="M45" s="17"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="18" t="s">
         <v>27</v>
       </c>
@@ -2024,15 +2022,15 @@
       <c r="E47" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>18</v>
+      <c r="F47" s="19">
+        <v>-80</v>
       </c>
       <c r="G47" s="19">
-        <v>-80</v>
-      </c>
-      <c r="H47" s="19">
         <v>-534</v>
       </c>
+      <c r="H47" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="I47" s="19" t="s">
         <v>18</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>29</v>
       </c>
@@ -2063,23 +2061,23 @@
       <c r="E48" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>18</v>
+      <c r="F48" s="15">
+        <v>-6014</v>
       </c>
       <c r="G48" s="15">
-        <v>-6014</v>
-      </c>
-      <c r="H48" s="15">
         <v>-53</v>
       </c>
-      <c r="I48" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48" s="15">
-        <v>0</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>18</v>
+      <c r="H48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
       </c>
       <c r="L48" s="15">
         <v>0</v>
@@ -2091,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="18" t="s">
         <v>30</v>
       </c>
@@ -2101,34 +2099,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="19">
-        <v>0</v>
+        <v>1986748</v>
       </c>
       <c r="G49" s="19">
-        <v>1986748</v>
+        <v>2669782</v>
       </c>
       <c r="H49" s="19">
-        <v>2669782</v>
+        <v>0</v>
       </c>
       <c r="I49" s="19">
-        <v>0</v>
+        <v>2616316</v>
       </c>
       <c r="J49" s="19">
-        <v>2616316</v>
+        <v>0</v>
       </c>
       <c r="K49" s="19">
-        <v>0</v>
+        <v>3911403</v>
       </c>
       <c r="L49" s="19">
-        <v>3911403</v>
+        <v>4234626</v>
       </c>
       <c r="M49" s="19">
-        <v>4234626</v>
+        <v>3851293</v>
       </c>
       <c r="N49" s="19">
-        <v>3851293</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5598067</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2143,7 +2141,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2158,7 +2156,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2173,7 +2171,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>36</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2225,7 +2223,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>37</v>
       </c>
@@ -2242,7 +2240,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>16</v>
       </c>
@@ -2251,37 +2249,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>427738</v>
+        <v>506124</v>
       </c>
       <c r="F56" s="11">
-        <v>506124</v>
+        <v>524376</v>
       </c>
       <c r="G56" s="11">
-        <v>524376</v>
+        <v>573054</v>
       </c>
       <c r="H56" s="11">
-        <v>573054</v>
+        <v>-586474</v>
       </c>
       <c r="I56" s="11">
-        <v>-586474</v>
+        <v>201858</v>
       </c>
       <c r="J56" s="11">
-        <v>201858</v>
+        <v>734980</v>
       </c>
       <c r="K56" s="11">
-        <v>734980</v>
+        <v>884732</v>
       </c>
       <c r="L56" s="11">
-        <v>884732</v>
+        <v>975667</v>
       </c>
       <c r="M56" s="11">
-        <v>975667</v>
+        <v>1017249</v>
       </c>
       <c r="N56" s="11">
-        <v>1017249</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1081488</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>19</v>
       </c>
@@ -2290,29 +2288,29 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>280562</v>
+        <v>324464</v>
       </c>
       <c r="F57" s="13">
-        <v>324464</v>
+        <v>328392</v>
       </c>
       <c r="G57" s="13">
-        <v>328392</v>
-      </c>
-      <c r="H57" s="13">
         <v>463811</v>
       </c>
+      <c r="H57" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I57" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="13">
+      <c r="K57" s="13">
         <v>602311</v>
       </c>
+      <c r="L57" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M57" s="13" t="s">
         <v>18</v>
       </c>
@@ -2320,7 +2318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>20</v>
       </c>
@@ -2329,37 +2327,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>611859</v>
+        <v>688924</v>
       </c>
       <c r="F58" s="11">
-        <v>688924</v>
+        <v>735673</v>
       </c>
       <c r="G58" s="11">
-        <v>735673</v>
+        <v>781666</v>
       </c>
       <c r="H58" s="11">
-        <v>781666</v>
+        <v>-910558</v>
       </c>
       <c r="I58" s="11">
-        <v>-910558</v>
+        <v>287202</v>
       </c>
       <c r="J58" s="11">
-        <v>287202</v>
+        <v>890881</v>
       </c>
       <c r="K58" s="11">
-        <v>890881</v>
+        <v>927751</v>
       </c>
       <c r="L58" s="11">
-        <v>927751</v>
+        <v>920627</v>
       </c>
       <c r="M58" s="11">
-        <v>920627</v>
+        <v>1021903</v>
       </c>
       <c r="N58" s="11">
-        <v>1021903</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1084949</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>21</v>
       </c>
@@ -2376,29 +2374,29 @@
       <c r="G59" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>18</v>
+      <c r="H59" s="13">
+        <v>-551724</v>
       </c>
       <c r="I59" s="13">
-        <v>-551724</v>
+        <v>146845</v>
       </c>
       <c r="J59" s="13">
-        <v>146845</v>
-      </c>
-      <c r="K59" s="13">
         <v>558007</v>
       </c>
-      <c r="L59" s="13" t="s">
-        <v>18</v>
+      <c r="K59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="13">
+        <v>636302</v>
       </c>
       <c r="M59" s="13">
-        <v>636302</v>
+        <v>778199</v>
       </c>
       <c r="N59" s="13">
-        <v>778199</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>792594</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>39</v>
       </c>
@@ -2415,7 +2413,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2424,37 +2422,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>387430</v>
+        <v>445239</v>
       </c>
       <c r="F61" s="11">
-        <v>445239</v>
+        <v>430368</v>
       </c>
       <c r="G61" s="11">
-        <v>430368</v>
+        <v>397730</v>
       </c>
       <c r="H61" s="11">
-        <v>397730</v>
+        <v>-627239</v>
       </c>
       <c r="I61" s="11">
-        <v>-627239</v>
+        <v>143888</v>
       </c>
       <c r="J61" s="11">
-        <v>143888</v>
+        <v>529168</v>
       </c>
       <c r="K61" s="11">
-        <v>529168</v>
+        <v>626726</v>
       </c>
       <c r="L61" s="11">
-        <v>626726</v>
+        <v>740618</v>
       </c>
       <c r="M61" s="11">
-        <v>740618</v>
+        <v>785931</v>
       </c>
       <c r="N61" s="11">
-        <v>785931</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>839420</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
@@ -2465,12 +2463,12 @@
       <c r="E62" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="13">
+      <c r="F62" s="13">
         <v>302459</v>
       </c>
+      <c r="G62" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" s="13" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2502,37 +2500,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>346098</v>
+        <v>453432</v>
       </c>
       <c r="F63" s="11">
-        <v>453432</v>
+        <v>452255</v>
       </c>
       <c r="G63" s="11">
-        <v>452255</v>
+        <v>388701</v>
       </c>
       <c r="H63" s="11">
-        <v>388701</v>
+        <v>-298136</v>
       </c>
       <c r="I63" s="11">
-        <v>-298136</v>
+        <v>129451</v>
       </c>
       <c r="J63" s="11">
-        <v>129451</v>
+        <v>528388</v>
       </c>
       <c r="K63" s="11">
-        <v>528388</v>
+        <v>630268</v>
       </c>
       <c r="L63" s="11">
-        <v>630268</v>
+        <v>834277</v>
       </c>
       <c r="M63" s="11">
-        <v>834277</v>
+        <v>948467</v>
       </c>
       <c r="N63" s="11">
-        <v>948467</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1010351</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -2558,20 +2556,20 @@
       <c r="J64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="13">
+      <c r="K64" s="13">
         <v>500000</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>18</v>
+      <c r="L64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="13">
+        <v>583447</v>
       </c>
       <c r="N64" s="13">
-        <v>583447</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2586,7 +2584,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2601,7 +2599,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2616,7 +2614,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2668,7 +2666,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>41</v>
       </c>
@@ -2685,7 +2683,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>16</v>
       </c>
@@ -2693,38 +2691,38 @@
         <v>33</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>-691116</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>18</v>
+      <c r="E71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-887740</v>
       </c>
       <c r="G71" s="11">
-        <v>-887740</v>
-      </c>
-      <c r="H71" s="11">
         <v>-1192561</v>
       </c>
-      <c r="I71" s="11" t="s">
-        <v>18</v>
+      <c r="H71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-1170013</v>
       </c>
       <c r="J71" s="11">
-        <v>-1170013</v>
+        <v>-1150782</v>
       </c>
       <c r="K71" s="11">
-        <v>-1150782</v>
+        <v>-1876725</v>
       </c>
       <c r="L71" s="11">
-        <v>-1876725</v>
+        <v>-1986088</v>
       </c>
       <c r="M71" s="11">
-        <v>-1986088</v>
+        <v>-1864000</v>
       </c>
       <c r="N71" s="11">
-        <v>-1864000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2815160</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>19</v>
       </c>
@@ -2732,30 +2730,30 @@
         <v>33</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="13">
-        <v>-49785</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>18</v>
+      <c r="E72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="13">
+        <v>-76467</v>
       </c>
       <c r="G72" s="13">
-        <v>-76467</v>
-      </c>
-      <c r="H72" s="13">
         <v>-130089</v>
       </c>
+      <c r="H72" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I72" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J72" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="13">
+      <c r="K72" s="13">
         <v>-160221</v>
       </c>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M72" s="13" t="s">
         <v>18</v>
       </c>
@@ -2763,7 +2761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>20</v>
       </c>
@@ -2771,38 +2769,38 @@
         <v>33</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11">
-        <v>-191019</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>18</v>
+      <c r="E73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="11">
+        <v>-214168</v>
       </c>
       <c r="G73" s="11">
-        <v>-214168</v>
-      </c>
-      <c r="H73" s="11">
         <v>-297006</v>
       </c>
-      <c r="I73" s="11" t="s">
-        <v>18</v>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11">
+        <v>-383607</v>
       </c>
       <c r="J73" s="11">
-        <v>-383607</v>
+        <v>-256877</v>
       </c>
       <c r="K73" s="11">
-        <v>-256877</v>
+        <v>-466873</v>
       </c>
       <c r="L73" s="11">
-        <v>-466873</v>
+        <v>-489323</v>
       </c>
       <c r="M73" s="11">
-        <v>-489323</v>
+        <v>-484561</v>
       </c>
       <c r="N73" s="11">
-        <v>-484561</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-696879</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>21</v>
       </c>
@@ -2822,63 +2820,63 @@
       <c r="H74" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I74" s="13" t="s">
-        <v>18</v>
+      <c r="I74" s="13">
+        <v>-99160</v>
       </c>
       <c r="J74" s="13">
-        <v>-99160</v>
-      </c>
-      <c r="K74" s="13">
         <v>-125596</v>
       </c>
-      <c r="L74" s="13" t="s">
-        <v>18</v>
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13">
+        <v>-153910</v>
       </c>
       <c r="M74" s="13">
-        <v>-153910</v>
+        <v>-149255</v>
       </c>
       <c r="N74" s="13">
-        <v>-149255</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-258171</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>-931920</v>
+        <v>0</v>
       </c>
       <c r="F75" s="15">
-        <v>0</v>
+        <v>-1178375</v>
       </c>
       <c r="G75" s="15">
-        <v>-1178375</v>
+        <v>-1619656</v>
       </c>
       <c r="H75" s="15">
-        <v>-1619656</v>
+        <v>0</v>
       </c>
       <c r="I75" s="15">
-        <v>0</v>
+        <v>-1652780</v>
       </c>
       <c r="J75" s="15">
-        <v>-1652780</v>
+        <v>-1533255</v>
       </c>
       <c r="K75" s="15">
-        <v>-1533255</v>
+        <v>-2503819</v>
       </c>
       <c r="L75" s="15">
-        <v>-2503819</v>
+        <v>-2629321</v>
       </c>
       <c r="M75" s="15">
-        <v>-2629321</v>
+        <v>-2497816</v>
       </c>
       <c r="N75" s="15">
-        <v>-2497816</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3770210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>43</v>
       </c>
@@ -2895,7 +2893,7 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>16</v>
       </c>
@@ -2903,38 +2901,38 @@
         <v>33</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11">
-        <v>-164249</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>18</v>
+      <c r="E77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-285113</v>
       </c>
       <c r="G77" s="11">
-        <v>-285113</v>
-      </c>
-      <c r="H77" s="11">
         <v>-341643</v>
       </c>
-      <c r="I77" s="11" t="s">
-        <v>18</v>
+      <c r="H77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="11">
+        <v>-359620</v>
       </c>
       <c r="J77" s="11">
-        <v>-359620</v>
+        <v>-397633</v>
       </c>
       <c r="K77" s="11">
-        <v>-397633</v>
+        <v>-475098</v>
       </c>
       <c r="L77" s="11">
-        <v>-475098</v>
+        <v>-748892</v>
       </c>
       <c r="M77" s="11">
-        <v>-748892</v>
+        <v>-501343</v>
       </c>
       <c r="N77" s="11">
-        <v>-501343</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-715450</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>19</v>
       </c>
@@ -2942,26 +2940,26 @@
         <v>33</v>
       </c>
       <c r="D78" s="13"/>
-      <c r="E78" s="13">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>18</v>
+      <c r="E78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="13">
+        <v>-2891</v>
       </c>
       <c r="G78" s="13">
-        <v>-2891</v>
-      </c>
-      <c r="H78" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J78" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" s="13">
-        <v>0</v>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>18</v>
@@ -2973,7 +2971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>20</v>
       </c>
@@ -2981,38 +2979,38 @@
         <v>33</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
-        <v>-69502</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>18</v>
+      <c r="E79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="11">
+        <v>-104767</v>
       </c>
       <c r="G79" s="11">
-        <v>-104767</v>
-      </c>
-      <c r="H79" s="11">
         <v>-130100</v>
       </c>
-      <c r="I79" s="11" t="s">
-        <v>18</v>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11">
+        <v>-103198</v>
       </c>
       <c r="J79" s="11">
-        <v>-103198</v>
+        <v>-143978</v>
       </c>
       <c r="K79" s="11">
-        <v>-143978</v>
+        <v>-33193</v>
       </c>
       <c r="L79" s="11">
-        <v>-33193</v>
+        <v>-25341</v>
       </c>
       <c r="M79" s="11">
-        <v>-25341</v>
+        <v>-32110</v>
       </c>
       <c r="N79" s="11">
-        <v>-32110</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-44388</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>21</v>
       </c>
@@ -3032,63 +3030,63 @@
       <c r="H80" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I80" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="13">
-        <v>0</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>18</v>
+      <c r="I80" s="13">
+        <v>0</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="13">
+        <v>0</v>
       </c>
       <c r="L80" s="13">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="M80" s="13">
-        <v>-11</v>
+        <v>-13378</v>
       </c>
       <c r="N80" s="13">
-        <v>-13378</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-944</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
-        <v>-233751</v>
+        <v>0</v>
       </c>
       <c r="F81" s="15">
-        <v>0</v>
+        <v>-392771</v>
       </c>
       <c r="G81" s="15">
-        <v>-392771</v>
+        <v>-471743</v>
       </c>
       <c r="H81" s="15">
-        <v>-471743</v>
+        <v>0</v>
       </c>
       <c r="I81" s="15">
-        <v>0</v>
+        <v>-462818</v>
       </c>
       <c r="J81" s="15">
-        <v>-462818</v>
+        <v>-541611</v>
       </c>
       <c r="K81" s="15">
-        <v>-541611</v>
+        <v>-508291</v>
       </c>
       <c r="L81" s="15">
-        <v>-508291</v>
+        <v>-774244</v>
       </c>
       <c r="M81" s="15">
-        <v>-774244</v>
+        <v>-546831</v>
       </c>
       <c r="N81" s="15">
-        <v>-546831</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-760782</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="16" t="s">
         <v>45</v>
       </c>
@@ -3105,7 +3103,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>46</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="18" t="s">
         <v>27</v>
       </c>
@@ -3150,17 +3148,17 @@
         <v>33</v>
       </c>
       <c r="D84" s="19"/>
-      <c r="E84" s="19">
-        <v>0</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>18</v>
+      <c r="E84" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="19">
+        <v>0</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
       </c>
-      <c r="H84" s="19">
-        <v>0</v>
+      <c r="H84" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="I84" s="19" t="s">
         <v>18</v>
@@ -3181,7 +3179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>29</v>
       </c>
@@ -3189,20 +3187,20 @@
         <v>33</v>
       </c>
       <c r="D85" s="15"/>
-      <c r="E85" s="15">
-        <v>0</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>18</v>
+      <c r="E85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="15">
+        <v>0</v>
       </c>
       <c r="G85" s="15">
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>18</v>
+      <c r="H85" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0</v>
       </c>
       <c r="J85" s="15">
         <v>0</v>
@@ -3220,44 +3218,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19">
-        <v>-1165671</v>
+        <v>0</v>
       </c>
       <c r="F86" s="19">
-        <v>0</v>
+        <v>-1571146</v>
       </c>
       <c r="G86" s="19">
-        <v>-1571146</v>
+        <v>-2091399</v>
       </c>
       <c r="H86" s="19">
-        <v>-2091399</v>
+        <v>0</v>
       </c>
       <c r="I86" s="19">
-        <v>0</v>
+        <v>-2115598</v>
       </c>
       <c r="J86" s="19">
-        <v>-2115598</v>
+        <v>-2074866</v>
       </c>
       <c r="K86" s="19">
-        <v>-2074866</v>
+        <v>-3012110</v>
       </c>
       <c r="L86" s="19">
-        <v>-3012110</v>
+        <v>-3403565</v>
       </c>
       <c r="M86" s="19">
-        <v>-3403565</v>
+        <v>-3044647</v>
       </c>
       <c r="N86" s="19">
-        <v>-3044647</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4530992</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3272,7 +3270,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3287,7 +3285,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3302,7 +3300,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>47</v>
       </c>
@@ -3339,7 +3337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3354,7 +3352,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>48</v>
       </c>
@@ -3371,7 +3369,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3379,38 +3377,38 @@
         <v>33</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11">
-        <v>641010</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>18</v>
+      <c r="E93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="11">
+        <v>238108</v>
       </c>
       <c r="G93" s="11">
-        <v>238108</v>
-      </c>
-      <c r="H93" s="11">
         <v>435005</v>
       </c>
-      <c r="I93" s="11" t="s">
-        <v>18</v>
+      <c r="H93" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="11">
+        <v>349994</v>
       </c>
       <c r="J93" s="11">
-        <v>349994</v>
+        <v>297253</v>
       </c>
       <c r="K93" s="11">
-        <v>297253</v>
+        <v>770982</v>
       </c>
       <c r="L93" s="11">
-        <v>770982</v>
+        <v>737948</v>
       </c>
       <c r="M93" s="11">
-        <v>737948</v>
+        <v>636817</v>
       </c>
       <c r="N93" s="11">
-        <v>636817</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1051031</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>19</v>
       </c>
@@ -3418,30 +3416,30 @@
         <v>33</v>
       </c>
       <c r="D94" s="13"/>
-      <c r="E94" s="13">
-        <v>30544</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>18</v>
+      <c r="E94" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="13">
+        <v>14899</v>
       </c>
       <c r="G94" s="13">
-        <v>14899</v>
-      </c>
-      <c r="H94" s="13">
         <v>25814</v>
       </c>
+      <c r="H94" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="I94" s="13" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K94" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L94" s="13">
+      <c r="K94" s="13">
         <v>32324</v>
       </c>
+      <c r="L94" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="M94" s="13" t="s">
         <v>18</v>
       </c>
@@ -3449,7 +3447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>20</v>
       </c>
@@ -3457,38 +3455,38 @@
         <v>33</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11">
-        <v>183724</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>18</v>
+      <c r="E95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="11">
+        <v>82314</v>
       </c>
       <c r="G95" s="11">
-        <v>82314</v>
-      </c>
-      <c r="H95" s="11">
         <v>146838</v>
       </c>
-      <c r="I95" s="11" t="s">
-        <v>18</v>
+      <c r="H95" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="11">
+        <v>129571</v>
       </c>
       <c r="J95" s="11">
-        <v>129571</v>
+        <v>-29077</v>
       </c>
       <c r="K95" s="11">
-        <v>-29077</v>
+        <v>72138</v>
       </c>
       <c r="L95" s="11">
-        <v>72138</v>
+        <v>-3907</v>
       </c>
       <c r="M95" s="11">
-        <v>-3907</v>
+        <v>26229</v>
       </c>
       <c r="N95" s="11">
-        <v>26229</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-58964</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>21</v>
       </c>
@@ -3508,63 +3506,63 @@
       <c r="H96" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I96" s="13" t="s">
-        <v>18</v>
+      <c r="I96" s="13">
+        <v>39110</v>
       </c>
       <c r="J96" s="13">
-        <v>39110</v>
-      </c>
-      <c r="K96" s="13">
         <v>3196</v>
       </c>
-      <c r="L96" s="13" t="s">
-        <v>18</v>
+      <c r="K96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="13">
+        <v>25186</v>
       </c>
       <c r="M96" s="13">
-        <v>25186</v>
+        <v>64829</v>
       </c>
       <c r="N96" s="13">
-        <v>64829</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35206</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>855278</v>
+        <v>0</v>
       </c>
       <c r="F97" s="15">
-        <v>0</v>
+        <v>335321</v>
       </c>
       <c r="G97" s="15">
-        <v>335321</v>
+        <v>607657</v>
       </c>
       <c r="H97" s="15">
-        <v>607657</v>
+        <v>0</v>
       </c>
       <c r="I97" s="15">
-        <v>0</v>
+        <v>518675</v>
       </c>
       <c r="J97" s="15">
-        <v>518675</v>
+        <v>271372</v>
       </c>
       <c r="K97" s="15">
-        <v>271372</v>
+        <v>875444</v>
       </c>
       <c r="L97" s="15">
-        <v>875444</v>
+        <v>759227</v>
       </c>
       <c r="M97" s="15">
-        <v>759227</v>
+        <v>727875</v>
       </c>
       <c r="N97" s="15">
-        <v>727875</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1027273</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>50</v>
       </c>
@@ -3581,7 +3579,7 @@
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
@@ -3589,38 +3587,38 @@
         <v>33</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11">
-        <v>144604</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>18</v>
+      <c r="E99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11">
+        <v>76351</v>
       </c>
       <c r="G99" s="11">
-        <v>76351</v>
-      </c>
-      <c r="H99" s="11">
         <v>-10157</v>
       </c>
-      <c r="I99" s="11" t="s">
-        <v>18</v>
+      <c r="H99" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="11">
+        <v>8767</v>
       </c>
       <c r="J99" s="11">
-        <v>8767</v>
+        <v>-13404</v>
       </c>
       <c r="K99" s="11">
-        <v>-13404</v>
+        <v>30186</v>
       </c>
       <c r="L99" s="11">
-        <v>30186</v>
+        <v>72131</v>
       </c>
       <c r="M99" s="11">
-        <v>72131</v>
+        <v>73318</v>
       </c>
       <c r="N99" s="11">
-        <v>73318</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>19</v>
       </c>
@@ -3628,26 +3626,26 @@
         <v>33</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="13">
-        <v>0</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>18</v>
+      <c r="E100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="13">
+        <v>861</v>
       </c>
       <c r="G100" s="13">
-        <v>861</v>
-      </c>
-      <c r="H100" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I100" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K100" s="13">
-        <v>0</v>
+      <c r="J100" s="13">
+        <v>0</v>
+      </c>
+      <c r="K100" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L100" s="13" t="s">
         <v>18</v>
@@ -3659,7 +3657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>20</v>
       </c>
@@ -3667,38 +3665,38 @@
         <v>33</v>
       </c>
       <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>16907</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>18</v>
+      <c r="E101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="11">
+        <v>3799</v>
       </c>
       <c r="G101" s="11">
-        <v>3799</v>
-      </c>
-      <c r="H101" s="11">
         <v>-18530</v>
       </c>
-      <c r="I101" s="11" t="s">
-        <v>18</v>
+      <c r="H101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="11">
+        <v>-26723</v>
       </c>
       <c r="J101" s="11">
-        <v>-26723</v>
+        <v>-56162</v>
       </c>
       <c r="K101" s="11">
-        <v>-56162</v>
+        <v>-6348</v>
       </c>
       <c r="L101" s="11">
-        <v>-6348</v>
+        <v>-286</v>
       </c>
       <c r="M101" s="11">
-        <v>-286</v>
+        <v>3872</v>
       </c>
       <c r="N101" s="11">
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>21</v>
       </c>
@@ -3718,63 +3716,63 @@
       <c r="H102" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" s="13">
-        <v>0</v>
-      </c>
-      <c r="K102" s="13" t="s">
-        <v>18</v>
+      <c r="I102" s="13">
+        <v>0</v>
+      </c>
+      <c r="J102" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="13">
+        <v>11</v>
       </c>
       <c r="L102" s="13">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="M102" s="13">
-        <v>-11</v>
+        <v>1581</v>
       </c>
       <c r="N102" s="13">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-944</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>161511</v>
+        <v>0</v>
       </c>
       <c r="F103" s="15">
-        <v>0</v>
+        <v>81011</v>
       </c>
       <c r="G103" s="15">
-        <v>81011</v>
+        <v>-28687</v>
       </c>
       <c r="H103" s="15">
-        <v>-28687</v>
+        <v>0</v>
       </c>
       <c r="I103" s="15">
-        <v>0</v>
+        <v>-17956</v>
       </c>
       <c r="J103" s="15">
-        <v>-17956</v>
+        <v>-69566</v>
       </c>
       <c r="K103" s="15">
-        <v>-69566</v>
+        <v>23849</v>
       </c>
       <c r="L103" s="15">
-        <v>23849</v>
+        <v>71834</v>
       </c>
       <c r="M103" s="15">
-        <v>71834</v>
+        <v>78771</v>
       </c>
       <c r="N103" s="15">
-        <v>78771</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39802</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="16" t="s">
         <v>52</v>
       </c>
@@ -3791,7 +3789,7 @@
       <c r="M104" s="17"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="14" t="s">
         <v>53</v>
       </c>
@@ -3828,41 +3826,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
       <c r="E106" s="19">
-        <v>1016789</v>
+        <v>0</v>
       </c>
       <c r="F106" s="19">
-        <v>0</v>
+        <v>416332</v>
       </c>
       <c r="G106" s="19">
-        <v>416332</v>
+        <v>578970</v>
       </c>
       <c r="H106" s="19">
-        <v>578970</v>
+        <v>0</v>
       </c>
       <c r="I106" s="19">
-        <v>0</v>
+        <v>500719</v>
       </c>
       <c r="J106" s="19">
-        <v>500719</v>
+        <v>201806</v>
       </c>
       <c r="K106" s="19">
-        <v>201806</v>
+        <v>899293</v>
       </c>
       <c r="L106" s="19">
-        <v>899293</v>
+        <v>831061</v>
       </c>
       <c r="M106" s="19">
-        <v>831061</v>
+        <v>806646</v>
       </c>
       <c r="N106" s="19">
-        <v>806646</v>
+        <v>1067075</v>
       </c>
     </row>
   </sheetData>
